--- a/output/DIVIDEND/rebalance/rebalance_20240329.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240329.xlsx
@@ -5868,13 +5868,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02212403084167699</v>
+        <v>0.02212371933807699</v>
       </c>
       <c r="C2" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000347323000009999</v>
+        <v>-0.0003470114964099977</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5889,13 +5889,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01591212256084628</v>
+        <v>0.01591143919722713</v>
       </c>
       <c r="C3" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005864585280820712</v>
+        <v>0.005865268644439862</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02348445455242902</v>
+        <v>0.02348502730849594</v>
       </c>
       <c r="C4" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001707746710762032</v>
+        <v>-0.001708319466828943</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5931,13 +5931,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02321421057301277</v>
+        <v>0.02321417657956991</v>
       </c>
       <c r="C5" t="n">
         <v>0.02156359761632266</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001650612956690105</v>
+        <v>-0.001650578963247249</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01533803057564695</v>
+        <v>0.0153394975622594</v>
       </c>
       <c r="C6" t="n">
         <v>0.02153202573108647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00619399515543952</v>
+        <v>0.006192528168827063</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5973,13 +5973,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02202727922364007</v>
+        <v>0.02202696325459395</v>
       </c>
       <c r="C7" t="n">
         <v>0.02146888196061407</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.000558397263025999</v>
+        <v>-0.0005580812939798736</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5994,13 +5994,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01727918840792466</v>
+        <v>0.01728156066407403</v>
       </c>
       <c r="C8" t="n">
         <v>0.02132680847705118</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004047620069126522</v>
+        <v>0.004045247812977153</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02223698402619034</v>
+        <v>0.02224241351304112</v>
       </c>
       <c r="C9" t="n">
         <v>0.02129523659181499</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0009417474343753479</v>
+        <v>-0.0009471769212261311</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6036,13 +6036,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02139759430284875</v>
+        <v>0.02139739841129558</v>
       </c>
       <c r="C10" t="n">
         <v>0.02126366470657879</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0001339295962699619</v>
+        <v>-0.0001337337047167889</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02331067571305045</v>
+        <v>0.02331050265614292</v>
       </c>
       <c r="C11" t="n">
         <v>0.02105844745254351</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002252228260506937</v>
+        <v>-0.002252055203599408</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6078,13 +6078,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02062253254984734</v>
+        <v>0.02062338102866666</v>
       </c>
       <c r="C12" t="n">
         <v>0.02102687556730731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004043430174599759</v>
+        <v>0.0004034945386406537</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6099,13 +6099,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01795019427297354</v>
+        <v>0.01795057759090707</v>
       </c>
       <c r="C13" t="n">
         <v>0.02096373179683492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003013537523861385</v>
+        <v>0.003013154205927855</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02240122337773511</v>
+        <v>0.02240110667526395</v>
       </c>
       <c r="C14" t="n">
         <v>0.02088480208374443</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001516421293990686</v>
+        <v>-0.001516304591519524</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.015163968523123</v>
+        <v>0.01516368607929959</v>
       </c>
       <c r="C16" t="n">
         <v>0.02080587237065393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005641903847530933</v>
+        <v>0.005642186291354342</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0231945925230737</v>
+        <v>0.02319488339916396</v>
       </c>
       <c r="C19" t="n">
         <v>0.02060065511661865</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002593937406455051</v>
+        <v>-0.002594228282545311</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01948862923964248</v>
+        <v>0.01948780168624251</v>
       </c>
       <c r="C21" t="n">
         <v>0.02041122380520147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009225945655589873</v>
+        <v>0.0009234221189589609</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02087762323144365</v>
+        <v>0.02087725601367185</v>
       </c>
       <c r="C22" t="n">
         <v>0.02037965191996527</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0004979713114783846</v>
+        <v>-0.0004976040937065759</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6309,13 +6309,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02282542486898862</v>
+        <v>0.02282519274930791</v>
       </c>
       <c r="C23" t="n">
         <v>0.02034808003472907</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002477344834259553</v>
+        <v>-0.002477112714578837</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02400231442186219</v>
+        <v>0.02400230766448168</v>
       </c>
       <c r="C25" t="n">
         <v>0.02020600655116618</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003796307870696004</v>
+        <v>-0.003796301113315494</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02018330377113996</v>
+        <v>0.02018448848235324</v>
       </c>
       <c r="C27" t="n">
         <v>0.01990607364142231</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0002772301297176462</v>
+        <v>-0.0002784148409309302</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6414,13 +6414,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02114169542994393</v>
+        <v>0.02114168599269875</v>
       </c>
       <c r="C28" t="n">
         <v>0.01982714392833182</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.00131455150161211</v>
+        <v>-0.00131454206436693</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02204947391820997</v>
+        <v>0.02204890308273347</v>
       </c>
       <c r="C29" t="n">
         <v>0.01965349855953273</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002395975358677239</v>
+        <v>-0.002395404523200733</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02261186276526824</v>
+        <v>0.02261123243667113</v>
       </c>
       <c r="C31" t="n">
         <v>0.01962192667429654</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002989936090971701</v>
+        <v>-0.002989305762374592</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6498,13 +6498,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02022209466180815</v>
+        <v>0.02022227786809806</v>
       </c>
       <c r="C32" t="n">
         <v>0.01957456884644224</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0006475258153659097</v>
+        <v>-0.0006477090216558123</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6519,13 +6519,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02125950391200481</v>
+        <v>0.02125893095712699</v>
       </c>
       <c r="C33" t="n">
         <v>0.01955878290382414</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001700721008180663</v>
+        <v>-0.00170014805330285</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6540,13 +6540,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01970022602320258</v>
+        <v>0.01969984952914037</v>
       </c>
       <c r="C34" t="n">
         <v>0.01949563913335175</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0002045868898508281</v>
+        <v>-0.0002042103957886204</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02394422244925371</v>
+        <v>0.02394418584251194</v>
       </c>
       <c r="C36" t="n">
         <v>0.01932199376455266</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.004622228684701045</v>
+        <v>-0.004622192077959275</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02533568099471941</v>
+        <v>0.02533860606639849</v>
       </c>
       <c r="C38" t="n">
         <v>0.01910099056789928</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.006234690426820122</v>
+        <v>-0.006237615498499206</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02070271667688411</v>
+        <v>0.02070274555742411</v>
       </c>
       <c r="C40" t="n">
         <v>0.0189904889695726</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001712227707311519</v>
+        <v>-0.001712256587851516</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01782590485977183</v>
+        <v>0.01782543402398103</v>
       </c>
       <c r="C41" t="n">
         <v>0.0189747030269545</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00114879816718267</v>
+        <v>0.001149269002973463</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0226033364948953</v>
+        <v>0.02259889269396907</v>
       </c>
       <c r="C42" t="n">
         <v>0.018895773313864</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003707563181031302</v>
+        <v>-0.003703119380105067</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02148261444635447</v>
+        <v>0.02148353670665906</v>
       </c>
       <c r="C43" t="n">
         <v>0.01884841548600971</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002634198960344766</v>
+        <v>-0.00263512122064935</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02212986582552632</v>
+        <v>0.0221293242751171</v>
       </c>
       <c r="C46" t="n">
         <v>0.01856426851888393</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003565597306642389</v>
+        <v>-0.003565055756233164</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0170741975137385</v>
+        <v>0.01707385114058168</v>
       </c>
       <c r="C47" t="n">
         <v>0.01850112474841154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001426927234673039</v>
+        <v>0.001427273607829856</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02478879061999013</v>
+        <v>0.02478552270151841</v>
       </c>
       <c r="C48" t="n">
         <v>0.01835905126484865</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.006429739355141476</v>
+        <v>-0.006426471436669755</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01717693814507768</v>
+        <v>0.01717706515535256</v>
       </c>
       <c r="C49" t="n">
         <v>0.01823276372390386</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001055825578826181</v>
+        <v>0.001055698568551307</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6876,13 +6876,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0134322459105571</v>
+        <v>0.01343287825800953</v>
       </c>
       <c r="C50" t="n">
         <v>0.01810647618295907</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00467423027240197</v>
+        <v>0.004673597924949542</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02021016052403606</v>
+        <v>0.02021059860715628</v>
       </c>
       <c r="C51" t="n">
         <v>0.01801176052725048</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002198399996785578</v>
+        <v>-0.002198838079905795</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01952169170380725</v>
+        <v>0.01952107192643597</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01952169170380725</v>
+        <v>-0.01952107192643597</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6939,13 +6939,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01730951043524754</v>
+        <v>0.01730914187208259</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01730951043524754</v>
+        <v>-0.01730914187208259</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6960,13 +6960,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01641026601293793</v>
+        <v>0.01641006408384038</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01641026601293793</v>
+        <v>-0.01641006408384038</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01588544830995921</v>
+        <v>0.01588526447600752</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01588544830995921</v>
+        <v>-0.01588526447600752</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01762220573504085</v>
+        <v>0.01762091581520776</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01762220573504085</v>
+        <v>-0.01762091581520776</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01684352199878538</v>
+        <v>0.01684496181700182</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01684352199878538</v>
+        <v>-0.01684496181700182</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02050723704295005</v>
+        <v>0.02050693877331463</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02050723704295005</v>
+        <v>-0.02050693877331463</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01749861308038696</v>
+        <v>0.01749807820394988</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01749861308038696</v>
+        <v>-0.01749807820394988</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02079246963255172</v>
+        <v>0.02079274749087699</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02079246963255172</v>
+        <v>-0.02079274749087699</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0166318616930337</v>
+        <v>0.01663126344910315</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0166318616930337</v>
+        <v>-0.01663126344910315</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01797922006328086</v>
+        <v>0.01797868122648833</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01797922006328086</v>
+        <v>-0.01797868122648833</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01627204556368044</v>
+        <v>0.01627197011640755</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01627204556368044</v>
+        <v>-0.01627197011640755</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20240329.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240329.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.24%</t>
+          <t>27.37%</t>
         </is>
       </c>
     </row>
@@ -5868,13 +5868,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02212371933807699</v>
+        <v>0.02220667633699772</v>
       </c>
       <c r="C2" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0003470114964099977</v>
+        <v>-0.0004299684953307306</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5889,13 +5889,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01591143919722713</v>
+        <v>0.0159715631419979</v>
       </c>
       <c r="C3" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005865268644439862</v>
+        <v>0.005805144699669088</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02348502730849594</v>
+        <v>0.02294731595195034</v>
       </c>
       <c r="C4" t="n">
         <v>0.02177670784166699</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001708319466828943</v>
+        <v>-0.001170608110283352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5931,13 +5931,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02321417657956991</v>
+        <v>0.02330092849277235</v>
       </c>
       <c r="C5" t="n">
         <v>0.02156359761632266</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001650578963247249</v>
+        <v>-0.001737330876449689</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0153394975622594</v>
+        <v>0.0144513795728641</v>
       </c>
       <c r="C6" t="n">
         <v>0.02153202573108647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006192528168827063</v>
+        <v>0.007080646158222362</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5973,13 +5973,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02202696325459395</v>
+        <v>0.02210956329813962</v>
       </c>
       <c r="C7" t="n">
         <v>0.02146888196061407</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0005580812939798736</v>
+        <v>-0.0006406813375255428</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5994,13 +5994,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01728156066407403</v>
+        <v>0.01656552160207371</v>
       </c>
       <c r="C8" t="n">
         <v>0.02132680847705118</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004045247812977153</v>
+        <v>0.004761286874977476</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02224241351304112</v>
+        <v>0.02148194346325174</v>
       </c>
       <c r="C9" t="n">
         <v>0.02129523659181499</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0009471769212261311</v>
+        <v>-0.0001867068714367544</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6036,13 +6036,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02139739841129558</v>
+        <v>0.02147752615579574</v>
       </c>
       <c r="C10" t="n">
         <v>0.02126366470657879</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0001337337047167889</v>
+        <v>-0.0002138614492169476</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02331050265614292</v>
+        <v>0.02339775398347745</v>
       </c>
       <c r="C11" t="n">
         <v>0.02105844745254351</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002252055203599408</v>
+        <v>-0.002339306530933942</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6078,13 +6078,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02062338102866666</v>
+        <v>0.02069956911834371</v>
       </c>
       <c r="C12" t="n">
         <v>0.02102687556730731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004034945386406537</v>
+        <v>0.0003273064489636053</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6099,13 +6099,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01795057759090707</v>
+        <v>0.01767459301045946</v>
       </c>
       <c r="C13" t="n">
         <v>0.02096373179683492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003013154205927855</v>
+        <v>0.003289138786375462</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02240110667526395</v>
+        <v>0.02248490434053491</v>
       </c>
       <c r="C14" t="n">
         <v>0.02088480208374443</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001516304591519524</v>
+        <v>-0.00160010225679048</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01516368607929959</v>
+        <v>0.01522061433502726</v>
       </c>
       <c r="C16" t="n">
         <v>0.02080587237065393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005642186291354342</v>
+        <v>0.005585258035626671</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02319488339916396</v>
+        <v>0.02328123715856308</v>
       </c>
       <c r="C19" t="n">
         <v>0.02060065511661865</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002594228282545311</v>
+        <v>-0.002680582041944428</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01948780168624251</v>
+        <v>0.01956143005194286</v>
       </c>
       <c r="C21" t="n">
         <v>0.02041122380520147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009234221189589609</v>
+        <v>0.0008497937532586097</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02087725601367185</v>
+        <v>0.02095561270476476</v>
       </c>
       <c r="C22" t="n">
         <v>0.02037965191996527</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0004976040937065759</v>
+        <v>-0.0005759607847994896</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6309,13 +6309,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02282519274930791</v>
+        <v>0.02291069045904785</v>
       </c>
       <c r="C23" t="n">
         <v>0.02034808003472907</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002477112714578837</v>
+        <v>-0.002562610424318781</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02400230766448168</v>
+        <v>0.02409197634551593</v>
       </c>
       <c r="C25" t="n">
         <v>0.02020600655116618</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003796301113315494</v>
+        <v>-0.003885969794349742</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02018448848235324</v>
+        <v>0.02025869957714439</v>
       </c>
       <c r="C27" t="n">
         <v>0.01990607364142231</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0002784148409309302</v>
+        <v>-0.0003526259357220785</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6414,13 +6414,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02114168599269875</v>
+        <v>0.0212206713590245</v>
       </c>
       <c r="C28" t="n">
         <v>0.01982714392833182</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.00131454206436693</v>
+        <v>-0.001393527430692685</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02204890308273347</v>
+        <v>0.02213184090217294</v>
       </c>
       <c r="C29" t="n">
         <v>0.01965349855953273</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002395404523200733</v>
+        <v>-0.002478342342640206</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02261123243667113</v>
+        <v>0.02269633058271676</v>
       </c>
       <c r="C31" t="n">
         <v>0.01962192667429654</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002989305762374592</v>
+        <v>-0.003074403908420224</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6498,13 +6498,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02022227786809806</v>
+        <v>0.02029763537325031</v>
       </c>
       <c r="C32" t="n">
         <v>0.01957456884644224</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0006477090216558123</v>
+        <v>-0.0007230665268080638</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6519,13 +6519,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02125893095712699</v>
+        <v>0.02133891992094344</v>
       </c>
       <c r="C33" t="n">
         <v>0.01955878290382414</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.00170014805330285</v>
+        <v>-0.001780137017119293</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6540,13 +6540,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01969984952914037</v>
+        <v>0.01977381726655556</v>
       </c>
       <c r="C34" t="n">
         <v>0.01949563913335175</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0002042103957886204</v>
+        <v>-0.0002781781332038061</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02394418584251194</v>
+        <v>0.02403366736725035</v>
       </c>
       <c r="C36" t="n">
         <v>0.01932199376455266</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.004622192077959275</v>
+        <v>-0.004711673602697683</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6624,13 +6624,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02533860606639849</v>
+        <v>0.02543032378020825</v>
       </c>
       <c r="C38" t="n">
         <v>0.01910099056789928</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.006237615498499206</v>
+        <v>-0.006329333212308962</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02070274555742411</v>
+        <v>0.02078005277745686</v>
       </c>
       <c r="C40" t="n">
         <v>0.0189904889695726</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001712256587851516</v>
+        <v>-0.00178956380788426</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01782543402398103</v>
+        <v>0.01789249447661061</v>
       </c>
       <c r="C41" t="n">
         <v>0.0189747030269545</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001149269002973463</v>
+        <v>0.001082208550343886</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6708,13 +6708,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02259889269396907</v>
+        <v>0.02268777246200685</v>
       </c>
       <c r="C42" t="n">
         <v>0.018895773313864</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.003703119380105067</v>
+        <v>-0.003791999148142849</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02148353670665906</v>
+        <v>0.02156286389657487</v>
       </c>
       <c r="C43" t="n">
         <v>0.01884841548600971</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00263512122064935</v>
+        <v>-0.00271444841056516</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0221293242751171</v>
+        <v>0.02221253311773996</v>
       </c>
       <c r="C46" t="n">
         <v>0.01856426851888393</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003565055756233164</v>
+        <v>-0.003648264598856029</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6813,13 +6813,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01707385114058168</v>
+        <v>0.01713797908775754</v>
       </c>
       <c r="C47" t="n">
         <v>0.01850112474841154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001427273607829856</v>
+        <v>0.001363145660654</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02478552270151841</v>
+        <v>0.02488139046736209</v>
       </c>
       <c r="C48" t="n">
         <v>0.01835905126484865</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.006426471436669755</v>
+        <v>-0.006522339202513435</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6855,13 +6855,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01717706515535256</v>
+        <v>0.01724110351219605</v>
       </c>
       <c r="C49" t="n">
         <v>0.01823276372390386</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001055698568551307</v>
+        <v>0.0009916602117078094</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6876,13 +6876,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01343287825800953</v>
+        <v>0.01348242278042735</v>
       </c>
       <c r="C50" t="n">
         <v>0.01810647618295907</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004673597924949542</v>
+        <v>0.004624053402531723</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02021059860715628</v>
+        <v>0.02028565665487109</v>
       </c>
       <c r="C51" t="n">
         <v>0.01801176052725048</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002198838079905795</v>
+        <v>-0.002273896127620606</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6918,13 +6918,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01952107192643597</v>
+        <v>0.01959461602270309</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01952107192643597</v>
+        <v>-0.01959461602270309</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6939,13 +6939,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01730914187208259</v>
+        <v>0.01716640815090483</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01730914187208259</v>
+        <v>-0.01716640815090483</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6960,13 +6960,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01641006408384038</v>
+        <v>0.01647156743548115</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01641006408384038</v>
+        <v>-0.01647156743548115</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01588526447600752</v>
+        <v>0.01594478924802623</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01588526447600752</v>
+        <v>-0.01594478924802623</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01762091581520776</v>
+        <v>0.01768803442295215</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01762091581520776</v>
+        <v>-0.01768803442295215</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01684496181700182</v>
+        <v>0.01690644187213473</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01684496181700182</v>
+        <v>-0.01690644187213473</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02050693877331463</v>
+        <v>0.02058384291894087</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02050693877331463</v>
+        <v>-0.02058384291894087</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01749807820394988</v>
+        <v>0.01756398008135542</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01749807820394988</v>
+        <v>-0.01756398008135542</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02079274749087699</v>
+        <v>0.02087014101006974</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02079274749087699</v>
+        <v>-0.02087014101006974</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01663126344910315</v>
+        <v>0.01669399089803996</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01663126344910315</v>
+        <v>-0.01669399089803996</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01797868122648833</v>
+        <v>0.01804638239722642</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01797868122648833</v>
+        <v>-0.01804638239722642</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01627197011640755</v>
+        <v>0.01633283065637515</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01627197011640755</v>
+        <v>-0.01633283065637515</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
